--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BFBCB-7886-40B0-9859-EDD68C0F3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,8 +503,120 @@
 </etc:cellImages>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="10">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="10">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -582,9 +700,6 @@
     <t>[金山文档] A cost-effective indoor vibrotactile navigation system for the blind..pdf</t>
   </si>
   <si>
-    <t>Way-finding electronic bracelet for visually impaired people</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IEEE Point-of-Care Healthcare Technologies (PHT)</t>
   </si>
   <si>
@@ -618,9 +733,6 @@
   </si>
   <si>
     <t>遇到场景过多，振动信号所要表示的信息越多，如何准确轻松识别全场景?</t>
-  </si>
-  <si>
-    <t>STIC - Sensory and Tactile Improved Cane</t>
   </si>
   <si>
     <t xml:space="preserve">Mensch und Computer </t>
@@ -746,9 +858,6 @@
     <t>[金山文档] Investigation of Suitable Body Parts for Wearable Vibration Feedback in Walking Navigation.pdf</t>
   </si>
   <si>
-    <t>Vi-Bros Tactile Feedback for Indoor Navigation with a Smartphone and a Smartwatch</t>
-  </si>
-  <si>
     <t>CHI</t>
   </si>
   <si>
@@ -767,13 +876,6 @@
     <t>[金山文档] Vi-Bros Tactile Feedback for Indoor Navigation with a Smartphone and a Smartwatch.pdf</t>
   </si>
   <si>
-    <t>Survey of Wearable Haptic Technologies for Navigation
- Guidance</t>
-  </si>
-  <si>
-    <t>Engineering, Computer Science</t>
-  </si>
-  <si>
     <t>可穿戴触觉技术，被称为可穿戴触觉，实例化与用户的物理接触，要么确认动作，要么通过穿戴式界面交流周围的信息。它们的设计需要考虑两个因素:身体轨迹——舒适度和灵敏度的函数，以及它们提供的刺激类型。在过去十年中，可穿戴触觉技术因其有效性、易用性和应用场景的多样性而获得了极大的普及。本文对可穿戴式触觉导航技术的研究现状进行了不详尽的综述。我们通过两个维度对现有文献进行分类:(1)它们所刺激的身体部位;(2)它们通过其驱动技术所提供的触觉刺激。然后，我们分析了他们与佩戴者交流时采用的导航制导策略，最终确定了他们评估协议中反映的挑战和限制。当通过可穿戴触觉引导时，需要在可接受性、认知工作量、可用性和准确性之间做出妥协。</t>
   </si>
   <si>
@@ -781,9 +883,6 @@
   </si>
   <si>
     <t>[金山文档] Wearable_Haptics_for_Navigation_Guidance__Survey_and_Perspectives-lq.pdf</t>
-  </si>
-  <si>
-    <t>Hand-held Haptic Navigation Devices for Actual Walking</t>
   </si>
   <si>
     <t xml:space="preserve">IEEE Transactions on Haptics </t>
@@ -801,19 +900,399 @@
     <t>navigation Vibration
 tactile feedback
 Haptic feedback</t>
+  </si>
+  <si>
+    <t>Vi-Bros Tactile Feedback for Indoor Navigation with a Smartphone and a Smartwatch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pharos: Improving Navigation Instructions on
+Smartwatches by Including Global Landmarks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigating the Haptic Perception of Directional Information Within a Handle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE Transactions on Haptics </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文研究手持柄内的二维方向提示的触觉感知，并通过一个24个受试者实验来分析方向线索的识别率。结果表明，柄的位置/持握、刺激方式和通过柄发送的方向指示物对结果产生了影响。总体而言，结果支持触觉处理的潜力，有望提供准确的指导。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文研究了通过智能手表的触觉反馈（即振动）作为一种非视觉通信模式来传递短文本信息对情侣之间的交流意义。本研究以探讨如何通过适当的振动来传递情侣们之间日常交流的短信，并通过振动的时间和次数等来传达这些短信的意义。通过本研究，可以在个人活动的同时保留用户的主要注意力，支持不引人注目的互动，并提高用户感知到振动意义的准确度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploring haptic feedback for common message notification between intimate couples with smartwatches</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OzCHI </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Eclectic User Experience of Combined On-Screen and On-Wrist Vibrotactile Feedback in Touchscreen Input</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文评估了通过安装在步行者上的一个或两个手柄传达的方向性提示的触觉感知，目的是设计触觉再现技术，以帮助具有不同移动性、感觉和认知障碍的人。我们设计了一个由圆柱形软塑料外壳组成的触觉手柄，其中容纳了五个定制的音圈致动器，分布在手柄周围。我们进行了一项人体受试者研究，招募了14名参与者，以调查使用单手或双手条件的影响，并确定导航辅助场景中最有效的触觉模式。我们测试了使用振动脉冲或压力“轻拍”来传达不同方向的运动，这依赖于表观触觉运动错觉的概念。实验结果表明本文方法是一种有效的导航提示方法.我们确定了在单手或双手条件下，向前（93.7%）、向后（90.5%）、向左（97.2%）和向右（84.5%）方向传达方向指令的高效特定模式，强调了两种策略的可行性及其对各种单手柄或双手柄移动设备的适应性。在提供振动或敲击信号之间未发现显著差异。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparing the Haptic Perception of Directional Information
+Using a Uni-manual or Bi-manual Strategy on a Walker</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Haptics Symposium (HAPTICS)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本篇论文评估了通过在步行器上安装单手或双手柄传达方向线索的触觉感知能力，旨在制定触觉呈现技术，以帮助具有不同移动性、感官和认知障碍的人。该研究采用特定的振动和压力传感模式来传递不同方向的运动。研究结果表明，该技术是提供导航指示的有效方法。针对四个方向（前、后、左、右），无论是单手柄还是双手柄，都确定了高度有效的特定模式，突显了两种方案的可行性和适应性。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hands-free Haptic Navigation Devices for Actual
+Walking</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本调查中，我们概述了专为行走时导航引导而设计的免提触觉设备。我们按身体部位介绍和讨论器械，即用于手臂、脚和腿、背部、腹部和肩部、腰部以及最后头部的器械。虽然大多数实验测试在由装置引导的同时达到目标方面是成功的，但实验要求是广泛的。覆盖的距离从几米到一公里多不等，虽然有些设备可以自动工作，但其他设备需要实验者扮演绿野仙踪。为了比较这些设备的有用性和潜力，我们创建了一个表格，在其中我们对几个相关方面进行了评级，例如自主性，显著性和紧凑性。主要结论是，户外设备具有最高的技术准备水平，因为这些设备允许通过GPS进行自主导航，并且最紧凑的设备仍然需要实验者的操作。不幸的是，没有一个免提设备是在准备的水平，他们可能是有用的人与视觉障碍。应该改进的最重要的因素是定位精度，它应该是高的并且在任何时候都可用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand-held Haptic Navigation Devices for Actual Walking</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconstrained Pedestrian Navigation
+based on Vibro-tactile Feedback
+around the Wristband of a Smartwatch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文提出了一种基于方位的步行导航方法，利用用户手腕周围的振动触觉反馈来传达关于目标大致方向的信息。与传统导航不同，它没有预先定义路线，用户可以自由探索周围环境。我们的解决方案既可以作为智能手表的腕带佩戴，也可以作为独立设备佩戴。我们描述了一个具有四个传感器的移动的原型，并在初步导航研究中证明了其可行性。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>探讨了一种基于智能手表手环进行的无限制行人导航方式，该方式以震动反馈的方式向用户传达目标方向的信息。它的方法是基于方位角导航，允许用户无拘束地自由探索周围环境。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\Unconstrained pedestrian navigation based on vibro-tactile feedback around the wristband of a smartwatch .pdf</t>
+  </si>
+  <si>
+    <t>BrushTouch: Exploring an Alternative Tactile Method for Wearable Haptics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>触觉界面非常适合视觉/听觉注意力无法集中、不安全或社会不可接受的情况。然而，传统的（振动触觉）可穿戴界面通常具有有限的信息表达带宽。我们探索了一种通过刷进行触觉刺激的新形式，并展示了 BrushTouch，一种用于刷触觉的可穿戴原型。我们还提出了通过多触觉腕戴式触觉界面传达时间和方向等信息的方案。为了评估 BrushTouch，进行了两项用户研究，在实验室和移动条件下的多项任务中将其与传统的振动触觉腕带进行了比较。我们表明，对于某些提示，刷比振动可以更准确地识别，从而能够通过触觉方式实现更有效的空间方案来呈现信息。然后我们表明 BrushTouch 能够使用此类提示进行更多的信息传递。我们认为，与其他非振动触觉触觉技术一样，刷值得进一步研究，作为更丰富的触觉反馈的潜在载体。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>该研究探讨了一种创新的触觉刺激方式——刷子刺激的新型可穿戴设备BrushTouch，并在实验室和移动环境下，通过对比BrushTouch和常规的振动型手环，以验证BrushTouch的可行性。 BrushTouch通过多tactor手环传达时间和方向等信息。BrushTouch接收刷状固体行走机Trail Touch的灵感，通过机械致动的摩擦来刺激皮肤。 BrushTouch可以比振动更准确地刺激皮肤，从而使得刷子在呈现信息方面的效果更显著。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\BrushTouch Exploring an alternative tactile method for wearable haptics .pdf</t>
+  </si>
+  <si>
+    <t>Haptic Guidance in Dynamic Environments Using
+Optimal Reciprocal Collision Avoidance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Robotics and Automation Letters</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在使用者不能依靠其主要感觉模态的情况下，如辅助或搜索和救援情况下，人工指导是一项具有挑战性的任务。针对在动态环境中用户不能依赖于其主要感觉模态的情况，提出了一种无冲突路径引导算法。为了安全地引导受试者，我们将最优相互碰撞避免应用于我们的具体问题。提出的算法考虑了可显示给用户的刺激以及用户对所提供的刺激做出反应时的运动不确定性。在三种不同的动态场景下对所提出的算法进行了评估。实验要求18名被试者蒙上眼睛，在避开真实的静态障碍物和移动用户的同时，跟随触觉线索到达目标区域。在此基础上，通过对目标到达时间、轨迹长度和与障碍物的最小距离等指标的分析，将该方法的结果与无视觉障碍的实验结果进行了比较。实验结果表明，在所有的实验中，被蒙住眼睛的被试都能够成功地避免碰撞并安全到达目标。尽管在本文中我们通过触觉刺激来显示方向性线索，但我们相信所提出的方法可以是通用的，并且可以调整以与不同的触觉接口和/或反馈模态一起工作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文研究了在人类无法依赖主要感官的情况下，参与协作任务或者搜索和救援的人类导航问题。提出了一种算法，用于实现无碰撞引导，即最优互惠避碰。通过提供能够图示显示和在反应所提供的刺激时被提供的的可能导致的运动不确定性的可视刺激，确保了用户的安全导航。在三个不同的动态场景下评估了所提出的引导算法，让18个带上眼罩的被试者遵循触觉信号，以避免静态障碍物和其他活动者的发生碰撞，能够在所有试验中安全地到达目标区域。文章显示，即使通过触觉刺激在方向上作出引导，该算法也可能具有广泛适用性并能够调整以与不同的触觉界面和/或反馈模式一起工作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\Haptic guidance in dynamic environments using optimal reciprocal collision avoidance.pdf</t>
+  </si>
+  <si>
+    <t>Exploring aural and haptic feedback for visually impaired people on a track A wizard of oz study</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGACCESS Conference on Computers and Accessibility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得各种锻炼对保持健康的生活方式很重要。这种多样性包括公共场所的体育活动。一条400米的慢跑跑道是无法进入的，因为它只提供视觉提示，让人们留在自己的车道上。作为使锻炼空间无障碍的第一步，我们进行了一项生态有效的绿野仙踪研究，以比较人们在轨道上行走时人类指导，言语，手腕振动和头部跳动反馈的准确性和用户体验。技术条件并不影响准确性，但偏好的顺序是人的指导，口头，手腕振动和头部跳动。参与者在拿着手杖或导盲犬时很难感知振动，较低频率的声音使他们很难专注于现有的导航策略。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究针对视障人士在跑道上进行的耳听和触觉反馈，以使他们能够进行户外运动。研究人员使用了人工导游、口头指导、腕部振动和头部拍打等不同的技术情况对参与者进行测试，结果表明与导游相比，其它技术对准确性没有影响，但口头指导、腕部振动和头部拍打的首选顺序是逐渐下降的。参与者在手持拐杖或导盲犬时很难感知震动，而较低频率的声音会使其难以专注于他们现有的导航策略。研究显示出了使用声音和震动的前景。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\Exploring aural and haptic feedback for visually impaired people on a track A wizard of oz study.pdf</t>
+  </si>
+  <si>
+    <t>Information Push and Pull in Tactile
+Pedestrian Navigation Support</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileHCI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于行人导航支持，我们报告了如何控制接收更新的感觉影响导航效率和用户体验。在一项探索性的实地研究中，24名参与者使用腕带导航到以前未知的目标，腕带传达了关于目标方位的触觉信息。信息要么由用户通过简单的手臂手势在她选择的时间拉取，要么由臂章以规则的预设间隔推送。虽然推模式带来了更高的效率，但更多的用户更喜欢主动拉取信息，可能是因为这会让人感觉更有控制力。有趣的是，模式偏好是独立的个人导航能力。结果表明，应使用特定导航上下文的属性来确定接口是否提供推或拉模式的导航支持。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>探讨了通过触觉接口为步行者提供导航支持的方式。研究发现，用户控制接收信息的方式（“推”或“拉”）对导航效率和用户体验产生了不同的影响。研究结果提示，在确定导航接口“推”或“拉”模式时，应考虑导航环境的特定属性。该文件提供了一些关键词，如用户控制、城市导航、触觉接口和移动界面，以帮助读者了解文件的重点。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\Information push and pull in tactile pedestrian navigation support.pdf</t>
+  </si>
+  <si>
+    <t>本文概述了为步行导航指南而专门设计的无需双手操作的触觉设备，包括用于手臂、脚和腿、背部、腹部和肩膀、腰部以及头部的设备。此外，文中还将这些设备按照自主性、显著性和紧凑性等方面进行评分比较。文献指出，现阶段所有的无需双手操作的设备都还不能完全满足视障人士的需求，主要因为位置精度需要更高。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepByWatch: A smartwatch-based enhanced navigation system for visually impaired users</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCNC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文介绍了一种新的用户交互方式，基于智能手表的震动字母表，解决了盲人用户无法通过视觉进行导航的问题。作者还提出PathS系统，这是一款增强版导航应用程序，可以通过智能手表收集数据信息，包括街道的亮度和噪音水平等地理信息。这篇文章介绍了一种新技术，可以为弱势群体的盲人用户提供改进的服务，并解决了用户分心的问题。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提供调查问卷证明：
+1. 95%的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼈更喜欢通过振动来接收⽅向以增加安全性。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\StepByWatch_A_smartwatch-based_enhanced_navigation_system_for_visually_impaired_users.pdf</t>
+  </si>
+  <si>
+    <t>这篇论文是关于一种基于地标，通过全球视角来为智能手表用户提供更佳导航指引的系统“Pharos”的介绍与研究。 相关研究表明，地标在人类的导航中非常重要，而普遍的导航技术很少运用到地标。 作者提出了一种新的方法，使用一个全球地标（例如埃菲尔铁塔，迪拜塔和电视塔）来为导航提供更准确的方向指引，而不是多个难以选择的本地地标。论文通过图像识别来确定各个城市中主要的全球性地标，并且结合了用户调查，验证了这种方法的可行性，用户使用Pharos的导航指引比传统的转向指引更加自信，并通过建立更准确的心理地图来更好地记住所到达的地点。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于使用街道名称和距离的传统逐向导航系统，基于地标的导航系统已被证明具有优势。然而，实现基于地标的导航系统的一个障碍是在每个决策点为每个用户选择突出的本地地标的复杂挑战。在本文中，我们提出了灯塔，一种新的系统，扩展转弯导航指令使用一个单一的全球地标（如埃菲尔铁塔，哈利法塔，市政电视塔），而不是多个，难以选择的本地地标。我们首先通过使用计算机视觉来选择全球地标，证明我们的方法在世界各地的大量城市中是可行的。然后，我们提出了一项研究的结果表明，通过包括全球地标的导航指令，用户导航更自信，并建立一个更准确的心理地图的导航区域比使用转由转指令。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\手表+手机\Pharos Improving Navigation Instructions on Smartwatches by Including Global Landmarks.pdf</t>
+  </si>
+  <si>
+    <t>论文\Hands-Free_Haptic_Navigation_Devices_for_Actual_Walking.pdf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本文中，我们探讨了智能手表的触觉反馈（即，振动）作为通过亲密的人之间的非视觉通信模式来传送短文本消息的会话含义的手段。目前智能手表振动的使用仅限于传达简单信息的基本模式，例如通知用户来电或短信。我们设想使用振动来通知亲密的人之间通常交换的信息，通过在他们的手腕上提供谨慎的反馈。这种形式的通信保留了用户的主要活动，而不会让他们看显示器，支持不显眼的交互。我们从研究亲密的人（如夫妻）在日常生活中交流的常见短信开始我们的探索。接下来，我们研究振动特性，例如振动持续时间和振动次数，这些振动特性适合于传达这些消息的含义。我们进一步研究了用户从振动中检测和提取消息含义的准确性，我们的结果报告了95%的准确性，同时感知正确的含义。我们的结论与设计建议使用这种振动反馈与亲密的合作伙伴进行信息交流。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\手表+手机\Exploring Haptic Feedback for Common Message Notification Between Intimate Couples with Smartwatches.pdf</t>
+  </si>
+  <si>
+    <t>介绍了一项旨在帮助视障人士在2D平面探索和定位物体的研究。研究人员设计了一个手环式的振动反馈设备，通过垂直轴上离散的细节和水平轴上连续的细节来引导用户到达目标物体。从12名视力正常者的试验中获得了积极的反馈，指出这是一种直观而有效的设计。除此之外，该研究提供了关于视障人士的日常生活和空间感知的相关背景和研究。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>视障人士在日常生活中会遇到许多挑战，特别是在导航和表示空间方面。购物的问题主要是在导航和产品检测的水平上解决的，但很少实现向用户传达关于对象位置的线索。这项工作提出了一个原型的振动触觉腕带使用时空模式，以帮助视障用户达到在他们面前的二维平面中的对象。一项针对12名蒙眼受试者的初步研究表明，在7 × 7的目标矩阵中离散空间，并在垂直轴上以离散模式和水平轴上以连续模式传达线索是一种直观有效的设计。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vibrotactile Feedback for Vertical 2D Space Exploration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文\腕带\Vibrotactile feedback for vertical 2d space exploration.pdf</t>
+  </si>
+  <si>
+    <t>Way-finding electronic bracelet for visually impaired people</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>STIC - Sensory and Tactile Improved Cane</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineering, Computer Science</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survey of Wearable Haptic Technologies for Navigation
+ Guidance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移动技术的全球传播为分布式传感的新时代打开了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼤⻔。事实上，移动传感和⽆线技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+术可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤于创造新的信息和服务，从⽽有可能在许多⽅⾯改善我们的⽣活。如果这些好处能够惠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+及整个社区，甚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾄惠及那些经常被数字鸿沟所忽视的弱势群体，那么这将变得更加有趣。为此，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+们开发了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼀种系统，该系统能够提供增强的路线导航系统，同时通过智能⼿表收集⾼质量数据。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+更有趣的是，我们为系统赋予了基于振动模式的交互范例，以便引导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤⼾⽽⽆需查看设备。我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+的建议避免了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤⼾的分⼼，现场试验证明了它在视障⼈⼠使⽤时的</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,337 +1340,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1199,266 +1387,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,77 +1415,153 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1786,629 +1808,1055 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.81818181818182" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.0909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.72727272727273" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.1818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65.5818181818182" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.8181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.9090909090909" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.7272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.4545454545455" style="2" customWidth="1"/>
-    <col min="10" max="10" width="54.5454545454545" customWidth="1"/>
-    <col min="11" max="11" width="21.3636363636364" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="54.5" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" ht="399" spans="1:11">
-      <c r="A2" s="4">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2017</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_EC5DD0234DB34E16A02AD010A2A90E4D",1)</f>
-        <v>=DISPIMG("ID_EC5DD0234DB34E16A02AD010A2A90E4D",1)</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_EC5DD0234DB34E16A02AD010A2A90E4D",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="294" spans="1:11">
-      <c r="A3" s="4">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="222.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2015</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_C82394F8F31D490E8CD4A7B4C4932D71",1)</f>
-        <v>=DISPIMG("ID_C82394F8F31D490E8CD4A7B4C4932D71",1)</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_C82394F8F31D490E8CD4A7B4C4932D71",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" ht="210" spans="1:11">
-      <c r="A4" s="4">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2011</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_D480E7731A0B4DF1BAF2D82D62D0E9B5",1)</f>
-        <v>=DISPIMG("ID_D480E7731A0B4DF1BAF2D82D62D0E9B5",1)</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_D480E7731A0B4DF1BAF2D82D62D0E9B5",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="336" spans="1:11">
-      <c r="A5" s="4">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_4691D1B45EBF4302B8E109C9655022CA",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_4691D1B45EBF4302B8E109C9655022CA",1)</f>
-        <v>=DISPIMG("ID_4691D1B45EBF4302B8E109C9655022CA",1)</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="408" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="408" customHeight="1" spans="1:11">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_A921D54A71C24D90A3D68A853DEA0F6E",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_63CE853FEBD7476D92FD0764BC5F6E30",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="222.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_F26F159E4F7D4E719E50315E326FD813",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="303.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_34B57C30BD5748F7A6A8660FB7453ED3",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="222.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_78C7A40AA5954604BEEF5FD843C7AEE7",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="344.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4">
         <v>2023</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_330C0FED45B54E36BA05CC94C6B384FC",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_234A87D75339476E9A29007457828E28",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="222.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_6184EC66026E4957A7943F6F2C73339D",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="263.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_21D8BB4BDF71416B99901314C3088C7B",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="324" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_A82105E392824ECA99E8EBEAA37A6110",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H17" s="3" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_587D55A7E38342A8BDACCB79C18A7E3D",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="e" vm="1">
+        <f ca="1">_xlfn.DISPIMG("ID_15BA755FA2BA48A19D789A7CA43CDE9F",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="263.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="303.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" ht="303.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="303.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="1" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="141.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="344.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="1" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="1" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="267.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="10" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="1" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_A921D54A71C24D90A3D68A853DEA0F6E",1)</f>
-        <v>=DISPIMG("ID_A921D54A71C24D90A3D68A853DEA0F6E",1)</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" ht="210" spans="1:11">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>_xlfn.DISPIMG("ID_63CE853FEBD7476D92FD0764BC5F6E30",1)</f>
-        <v>=DISPIMG("ID_63CE853FEBD7476D92FD0764BC5F6E30",1)</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" ht="252" spans="1:11">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" ht="336" spans="1:11">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2014</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_F26F159E4F7D4E719E50315E326FD813",1)</f>
-        <v>=DISPIMG("ID_F26F159E4F7D4E719E50315E326FD813",1)</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" ht="357" spans="1:11">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_34B57C30BD5748F7A6A8660FB7453ED3",1)</f>
-        <v>=DISPIMG("ID_34B57C30BD5748F7A6A8660FB7453ED3",1)</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" ht="252" spans="1:11">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_78C7A40AA5954604BEEF5FD843C7AEE7",1)</f>
-        <v>=DISPIMG("ID_78C7A40AA5954604BEEF5FD843C7AEE7",1)</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" ht="399" spans="1:11">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_330C0FED45B54E36BA05CC94C6B384FC",1)</f>
-        <v>=DISPIMG("ID_330C0FED45B54E36BA05CC94C6B384FC",1)</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" ht="105" spans="1:11">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_234A87D75339476E9A29007457828E28",1)</f>
-        <v>=DISPIMG("ID_234A87D75339476E9A29007457828E28",1)</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" ht="409.5" spans="1:11">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" ht="252" spans="1:11">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f>_xlfn.DISPIMG("ID_6184EC66026E4957A7943F6F2C73339D",1)</f>
-        <v>=DISPIMG("ID_6184EC66026E4957A7943F6F2C73339D",1)</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" ht="294" spans="1:11">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2023</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_21D8BB4BDF71416B99901314C3088C7B",1)</f>
-        <v>=DISPIMG("ID_21D8BB4BDF71416B99901314C3088C7B",1)</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" ht="357" spans="1:11">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f>_xlfn.DISPIMG("ID_A82105E392824ECA99E8EBEAA37A6110",1)</f>
-        <v>=DISPIMG("ID_A82105E392824ECA99E8EBEAA37A6110",1)</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>_xlfn.DISPIMG("ID_587D55A7E38342A8BDACCB79C18A7E3D",1)</f>
-        <v>=DISPIMG("ID_587D55A7E38342A8BDACCB79C18A7E3D",1)</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="str">
-        <f>_xlfn.DISPIMG("ID_15BA755FA2BA48A19D789A7CA43CDE9F",1)</f>
-        <v>=DISPIMG("ID_15BA755FA2BA48A19D789A7CA43CDE9F",1)</v>
-      </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" ht="21" spans="1:11">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" ht="21" spans="1:11">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="10"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="5:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="5:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="5:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="F51" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="[金山文档] An Indoor Navigation Service Robot System Based on Vibration Tactile Feedback.pdf"/>
-    <hyperlink ref="I3" r:id="rId2" display="[金山文档] Vibrotactile_Guidance_for_Wayfinding_of_Blind_Walkers.pdf"/>
-    <hyperlink ref="I4" r:id="rId3" display="[金山文档] A cost-effective indoor vibrotactile navigation system for the blind..pdf"/>
-    <hyperlink ref="I5" r:id="rId4" display="[金山文档] Way-finding_Electronic_Bracelet_for_visually_impaired_people.pdf"/>
-    <hyperlink ref="I6" r:id="rId5" display="[金山文档] Novel_Wrist-Worn_Vibrotactile_Device_for_Providing_Multi-Categorical_Information_for_Orientation_and_Mobility_of_the_Blind_and_Visually_Impaired.pdf"/>
-    <hyperlink ref="I8" r:id="rId6" display="[金山文档] Tactons structured tactile messages for non-visual information display.pdf"/>
-    <hyperlink ref="I9" r:id="rId7" display="[金山文档] Evaluation_of_rotational_and_directional_vibration_patterns_on_a_tactile_belt_for_guiding_visually_impaired_people.pdf"/>
-    <hyperlink ref="I10" r:id="rId8" display="[金山文档] Safe_Local_Navigation_for_Visually_Impaired_Users_With_a_Time-of-Flight_and_Haptic_Feedback_Device.pdf"/>
-    <hyperlink ref="I11" r:id="rId9" display="[金山文档] Towards Vibrotactile Direction and Distance Information for Virtual Reality and Workstations for Blind People.pdf"/>
-    <hyperlink ref="I12" r:id="rId10" display="[金山文档] Between-Tactor_Display_Using_Dynamic_Tactile_Stimuli_for_Directional_Cueing_in_Vibrating_Environments.pdf"/>
-    <hyperlink ref="I13" r:id="rId11" display="[金山文档] Analysis of different vibration patterns to guide blind.pdf"/>
-    <hyperlink ref="I14" r:id="rId12" display="[金山文档] Investigation of Suitable Body Parts for Wearable Vibration Feedback in Walking Navigation.pdf"/>
-    <hyperlink ref="I15" r:id="rId13" display="[金山文档] Vi-Bros Tactile Feedback for Indoor Navigation with a Smartphone and a Smartwatch.pdf"/>
-    <hyperlink ref="I16" r:id="rId14" display="[金山文档] Wearable_Haptics_for_Navigation_Guidance__Survey_and_Perspectives-lq.pdf"/>
-    <hyperlink ref="I17" r:id="rId15" display="[金山文档] Hand-held Haptic Navigation Devices for Actual Walking.pdf"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I25" r:id="rId16" xr:uid="{A31EAA36-ED56-4C98-8A20-984E04E2EDA7}"/>
+    <hyperlink ref="I26" r:id="rId17" xr:uid="{8A5F6F7C-B01E-4E1E-A04E-969535954ED2}"/>
+    <hyperlink ref="I27" r:id="rId18" xr:uid="{4100BA08-98D2-4967-88B3-3595BBE5CC3D}"/>
+    <hyperlink ref="I28" r:id="rId19" xr:uid="{4BC8C5FD-2FD6-4099-A57D-A0118393F4E1}"/>
+    <hyperlink ref="I29" r:id="rId20" xr:uid="{DA2D6D42-8FCD-4DF2-B1BA-366B3F56A091}"/>
+    <hyperlink ref="I24" r:id="rId21" xr:uid="{4CF2B5F2-29A7-4DA6-A678-98B114F83562}"/>
+    <hyperlink ref="I30" r:id="rId22" xr:uid="{7BCF4E4F-9B19-4B06-8482-B9E6FFBE903C}"/>
+    <hyperlink ref="I19" r:id="rId23" xr:uid="{38295673-8B1D-4F24-8CF2-6377155C4F0A}"/>
+    <hyperlink ref="I21" r:id="rId24" xr:uid="{84C3E192-1475-49DF-BBFE-429A84829195}"/>
+    <hyperlink ref="I31" r:id="rId25" xr:uid="{8853994C-D9F3-4DE9-A50C-F7DAE1A4C5D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="89.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" spans="1:1">
+    <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/调研.xlsx
+++ b/调研.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BFBCB-7886-40B0-9859-EDD68C0F3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED08ABA9-AB34-4C2F-98E5-142B534E9DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1304,6 +1304,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1312,6 +1313,7 @@
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1320,6 +1322,7 @@
       <sz val="16"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1328,6 +1331,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1336,6 +1340,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1816,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED08ABA9-AB34-4C2F-98E5-142B534E9DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47806AD9-B957-4E18-BC3A-7D49AFADFB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1821,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/调研.xlsx
+++ b/调研.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47806AD9-B957-4E18-BC3A-7D49AFADFB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982B871-BBAE-4F8F-93DC-7E101FC4B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1821,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
